--- a/image/procedure.xlsx
+++ b/image/procedure.xlsx
@@ -1317,45 +1317,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.96875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.73828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.02734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="110.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.75" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/procedure.xlsx
+++ b/image/procedure.xlsx
@@ -827,14 +827,14 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device|CareTeam|HealthcareService)
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
+    <t>Who performed the procedure</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the procedure.</t>
   </si>
   <si>
     <t>A reference to Device supports use cases, such as pacemakers.</t>

--- a/image/procedure.xlsx
+++ b/image/procedure.xlsx
@@ -827,14 +827,14 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device|CareTeam|HealthcareService)
 </t>
   </si>
   <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
+    <t>Who performed the procedure</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the procedure.</t>
   </si>
   <si>
     <t>A reference to Device supports use cases, such as pacemakers.</t>
@@ -1317,45 +1317,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.96875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.73828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.02734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="110.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.75" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/procedure.xlsx
+++ b/image/procedure.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="375">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -366,7 +366,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Some combination of ORC-2 / ORC-3 / OBR-2 / OBR-3 / IPC-1 / IPC-2 / IPC-3 / IPC-4</t>
+    <t>PR1-19</t>
   </si>
   <si>
     <t>Procedure.instantiatesCanonical</t>
@@ -452,6 +452,9 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=SBADM or PROC or OBS, moodCode=EVN]</t>
   </si>
   <si>
+    <t>PR1-25</t>
+  </si>
+  <si>
     <t>Procedure.status</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>PR1-6</t>
+  </si>
+  <si>
     <t>Procedure.code</t>
   </si>
   <si>
@@ -570,7 +576,7 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>OBR-44/OBR-45</t>
+    <t>PR1-3</t>
   </si>
   <si>
     <t>Procedure.subject</t>
@@ -656,7 +662,7 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
-    <t>OBR-7</t>
+    <t>PR1-5 - occurrencePeriod.end can be inferred when both PR1-5 (Procedure Date/Time) and PR1-7 (Procedure Minutes) are populated</t>
   </si>
   <si>
     <t>Procedure.recorded</t>
@@ -755,10 +761,6 @@
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -849,7 +851,7 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>ORC-19/PRT-5</t>
+    <t>PR1-8 (Anesthesiologist),  PR1-11 (Surgeon), PR1-12 (Procedure Practitioner) --&gt; Procedure.performer.actor where Procedure.performer.function is also populated</t>
   </si>
   <si>
     <t>Procedure.performer.onBehalfOf</t>
@@ -893,6 +895,9 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
+    <t>PR1-23</t>
+  </si>
+  <si>
     <t>Procedure.reasonCode</t>
   </si>
   <si>
@@ -918,6 +923,9 @@
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>PR1-15</t>
   </si>
   <si>
     <t>Procedure.reasonReference</t>
@@ -1139,7 +1147,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference(Device|Medication|Substance|BiologicallyDerivedProduct)
 </t>
   </si>
   <si>
@@ -1317,45 +1325,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.0234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.96875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.73828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.49609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="146.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3024,12 +3032,12 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3055,13 +3063,13 @@
         <v>68</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3087,13 +3095,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3111,7 +3119,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>49</v>
@@ -3126,13 +3134,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3140,11 +3148,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3163,16 +3171,16 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3198,13 +3206,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3222,7 +3230,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3237,10 +3245,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3251,7 +3259,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3274,13 +3282,13 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3307,13 +3315,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3331,7 +3339,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3349,22 +3357,22 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3383,17 +3391,17 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3418,13 +3426,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3442,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3457,25 +3465,25 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3494,13 +3502,13 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3551,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>49</v>
@@ -3566,21 +3574,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3603,16 +3611,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3662,7 +3670,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3677,21 +3685,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3714,16 +3722,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3773,7 +3781,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3788,21 +3796,21 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3825,13 +3833,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3882,7 +3890,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3897,13 +3905,13 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -3911,7 +3919,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3934,13 +3942,13 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3991,7 +3999,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4009,10 +4017,10 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4020,11 +4028,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4043,17 +4051,17 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4102,7 +4110,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4117,13 +4125,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4131,7 +4139,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4154,13 +4162,13 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4211,7 +4219,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4223,13 +4231,13 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4240,7 +4248,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4263,13 +4271,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4320,7 +4328,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4338,7 +4346,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4349,7 +4357,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4378,7 +4386,7 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>97</v>
@@ -4431,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4449,7 +4457,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4460,11 +4468,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4486,10 +4494,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -4544,7 +4552,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4573,7 +4581,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4596,17 +4604,17 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4631,13 +4639,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4655,7 +4663,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4670,21 +4678,21 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4707,17 +4715,17 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4766,7 +4774,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>49</v>
@@ -4781,21 +4789,21 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4818,17 +4826,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4877,7 +4885,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4895,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4906,7 +4914,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4929,17 +4937,17 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4988,7 +4996,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5006,18 +5014,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5040,16 +5048,16 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5075,13 +5083,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5099,7 +5107,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5114,21 +5122,21 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5151,16 +5159,16 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5210,7 +5218,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5225,13 +5233,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5239,7 +5247,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5262,16 +5270,16 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5297,13 +5305,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5321,7 +5329,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5339,18 +5347,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5373,16 +5381,16 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5408,13 +5416,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5432,7 +5440,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5450,7 +5458,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5461,7 +5469,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5484,16 +5492,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5543,7 +5551,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5561,7 +5569,7 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5572,7 +5580,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5595,16 +5603,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5630,13 +5638,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5654,7 +5662,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5672,7 +5680,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5683,7 +5691,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5706,17 +5714,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5765,7 +5773,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5783,7 +5791,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5794,7 +5802,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5817,13 +5825,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5850,31 +5858,31 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5892,7 +5900,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5903,7 +5911,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5926,13 +5934,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5983,7 +5991,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5998,21 +6006,21 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6035,13 +6043,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6092,7 +6100,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6104,13 +6112,13 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6121,7 +6129,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6144,13 +6152,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6201,7 +6209,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6219,7 +6227,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6230,7 +6238,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6259,7 +6267,7 @@
         <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>97</v>
@@ -6312,7 +6320,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6330,7 +6338,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6341,11 +6349,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6367,10 +6375,10 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>97</v>
@@ -6425,7 +6433,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6454,7 +6462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6477,13 +6485,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6513,28 +6521,28 @@
         <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6552,7 +6560,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6563,7 +6571,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6586,13 +6594,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6643,7 +6651,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>49</v>
@@ -6661,7 +6669,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6672,7 +6680,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6695,19 +6703,19 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6756,7 +6764,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6774,7 +6782,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6785,7 +6793,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6808,16 +6816,16 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6843,31 +6851,31 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6885,7 +6893,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
